--- a/FAQ_export.xlsx
+++ b/FAQ_export.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/venkata_chundru_broadridge_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048BAD95F42865BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5121766-3850-4D1A-B0A3-F71726AF3AAF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048BAD95F42865BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5A4FAF-7FE3-467E-A8F0-47F2A4B52B48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,43 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Which movie to watch</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Where to watch</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>google.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>What the Science Says</t>
+  </si>
+  <si>
+    <t>"Climate's changed before"</t>
+  </si>
+  <si>
+    <t>Climate reacts to whatever forces it to change at the time; humans are now the dominant forcing.</t>
+  </si>
+  <si>
+    <t>"It's the sun"</t>
+  </si>
+  <si>
+    <t>In the last 35 years of global warming, sun and climate have been going in opposite directions</t>
+  </si>
+  <si>
+    <t>"It's not bad"</t>
+  </si>
+  <si>
+    <t>Negative impacts of global warming on agriculture, health &amp; environment far outweigh any positives.</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +63,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,13 +100,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,19 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17FAFE88-7DD7-4FAE-A798-6136666C25A4}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{17FAFE88-7DD7-4FAE-A798-6136666C25A4}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1501A964-6CFC-42B7-BD76-E8414EE2AE3B}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{85640D7C-9630-47FC-BB9E-39BF18A25D17}" name="Answer"/>
-    <tableColumn id="3" xr3:uid="{B0D699D5-4EE7-4F83-B27A-A5B684629857}" name="Item Type"/>
-    <tableColumn id="4" xr3:uid="{6139A33C-3159-4C31-9B14-4824E6A60008}" name="Path"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,66 +415,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC2E2E-67FE-4E0A-A3F2-34AEAF3CC643}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/FAQ_export.xlsx
+++ b/FAQ_export.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/venkata_chundru_broadridge_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048BAD95F42865BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5A4FAF-7FE3-467E-A8F0-47F2A4B52B48}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC1048BAD95F42865BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1F045A-8E9C-481D-A30C-D3AE7E9BD494}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,32 +30,32 @@
     <t>What the Science Says</t>
   </si>
   <si>
-    <t>"Climate's changed before"</t>
-  </si>
-  <si>
     <t>Climate reacts to whatever forces it to change at the time; humans are now the dominant forcing.</t>
   </si>
   <si>
-    <t>"It's the sun"</t>
-  </si>
-  <si>
     <t>In the last 35 years of global warming, sun and climate have been going in opposite directions</t>
   </si>
   <si>
-    <t>"It's not bad"</t>
-  </si>
-  <si>
     <t>Negative impacts of global warming on agriculture, health &amp; environment far outweigh any positives.</t>
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Climate's changed before</t>
+  </si>
+  <si>
+    <t>It's the sun</t>
+  </si>
+  <si>
+    <t>It's not bad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,34 +121,101 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color theme="9" tint="0.39997558519241921"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,6 +226,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7B15785-C334-4D58-9ED4-A60AB64AEA18}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B4" xr:uid="{D7B15785-C334-4D58-9ED4-A60AB64AEA18}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C6FE6247-8DB4-4810-9A18-DD509171CC6B}" name="Question" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B8CEC774-6CDA-45C6-A564-DE833B2C5D8B}" name="What the Science Says"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,48 +505,52 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>